--- a/RunningNotes/RunningNotes.xlsx
+++ b/RunningNotes/RunningNotes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1730EA4C-CFC2-43FC-8404-F511EA9561FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01AE5F1-4A3A-4829-B24D-63BC54D8F2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="936" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="936" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="18" r:id="rId1"/>
@@ -69,10 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="378">
-  <si>
-    <t>Pros vs Cons</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="417">
   <si>
     <t>ArrayList</t>
   </si>
@@ -110,12 +107,6 @@
     <t>Iterator</t>
   </si>
   <si>
-    <t xml:space="preserve">*Internally uses Array.
-*Not synchronized but can get a sync list with the help of collection util.
-*Best when read operation are more because of index based.
-</t>
-  </si>
-  <si>
     <t>Exception</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
   </si>
   <si>
     <t>Priority Queue</t>
-  </si>
-  <si>
-    <t>*the capacity increment(2nd argument) is less than or equal to zero, the capacity of the vector is doubled each time it needs to grow.</t>
   </si>
   <si>
     <t>fail fast</t>
@@ -189,9 +177,6 @@
       </rPr>
       <t>: Iterator makes copy of the internal data structure (object array) and iterates over the copied(may get stale in multi-thread environment) data structure.</t>
     </r>
-  </si>
-  <si>
-    <t>*Internally uses Array.</t>
   </si>
   <si>
     <t>Map</t>
@@ -408,9 +393,6 @@
   </si>
   <si>
     <t>Abstract class</t>
-  </si>
-  <si>
-    <t>When we want to share code among several closely related classes</t>
   </si>
   <si>
     <t>Abstraction</t>
@@ -725,34 +707,7 @@
     <t>Explaination</t>
   </si>
   <si>
-    <t>Java passes everything by value. With primitives, you get a copy of the contents. With references you get a copy of the contents.</t>
-  </si>
-  <si>
     <t>Pass by value or reference</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Good Read</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-http://tutorials.jenkov.com/java-concurrency/java-memory-model.html</t>
-    </r>
   </si>
   <si>
     <t>HackerRank</t>
@@ -778,9 +733,6 @@
   </si>
   <si>
     <t>Open-Closed Principle</t>
-  </si>
-  <si>
-    <t>Liskov Substitution Principle</t>
   </si>
   <si>
     <t>Interface Segregation Principle</t>
@@ -827,9 +779,6 @@
   </si>
   <si>
     <t>HashSet</t>
-  </si>
-  <si>
-    <t>LinkedHasHashMap</t>
   </si>
   <si>
     <t xml:space="preserve">Set returns true to indicate that the object is added into the map.
@@ -953,9 +902,6 @@
     <t>Enum</t>
   </si>
   <si>
-    <t>ConcurentHashMap </t>
-  </si>
-  <si>
     <t>Inner Class</t>
   </si>
   <si>
@@ -1052,16 +998,6 @@
       </rPr>
       <t xml:space="preserve"> can be defined as a combination of both shallow copy and deep copy. The mechanism follows a simple approach – at the initial state, shallow copy approach is used. A counter is also used to keep a track on how many objects share the data. When the program wants to modify the original object, it checks whether the object is shared or not. If the object is shared, then the deep copy mechanism is initiated.</t>
     </r>
-  </si>
-  <si>
-    <t>Strings are immutable :
-So that they can be used in hashtable.
-So that we can use the string pool safely, because no one can change reference of string once it gets created.
-Threads funda … still no clue</t>
-  </si>
-  <si>
-    <t>The JVM exits the program when all the user threads are completed. It does not wait for the deamon thread for completion.
-A thread should be set to deamon before starting the thread.</t>
   </si>
   <si>
     <t>When stack memory is full, Java runtime throws java.lang.StackOverFlowError whereas if heap memory is full, it throws java.lang.OutOfMemoryError: Java Heap Space error</t>
@@ -1584,97 +1520,11 @@
     <t>Intended to provide a standard way to visualize the design of a system.</t>
   </si>
   <si>
-    <t>Null Object</t>
-  </si>
-  <si>
-    <t>The adapter is the solution for classes that do similar jobs but don't have a unified interface. Adapter provides the uniform interface and can be implemented using either multiple inheritance or delegation through embedding a member of the adaptee.
-There are two types of Adapter
-1. Objects Adapters(Composition): Adapter Implements the interface. Adapter holds the object of the other class(Adaptee)
-2. Class Adapters (Inheritance): Adapter Implements the interface. Adapter inherits the other class(Adaptee).</t>
-  </si>
-  <si>
     <t>You should consider using the Adapter Pattern whenever you want to use an existing class’s functionality, but its interface is not the one that you require.
 Interfaces are incompatible, but the inner functionality should be as required.
 Decorator and Adapter does wrap already existing object, and such is typically provided in the constructor.
 dzone.com/articles/adapter-design-pattern-in-java
 Decorator and Adapter wrap existing object, and that is typically provided in the constructor.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">There are 3 entites in Decorator pattern.
-1. The basic Interface.
-2. One or many concrete Class that provide the basic functionalities.
-3. Decorator Class/Classes that takes/wraps the concrete class(as a construtor argument) and provides the addition functionalities. 
-   The Decorator class should implement the basic interface too(Why---It wil be easy to Use the basic Interface reference and call the operations)
-Decorators should not be inter dependable
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DrawBacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.All methods in the decorated interface must be implemented in the decorator class.Can this drawback be solved by combining the command pattern. i.e the Decorators should implement command pattern. May be possible in specific case.
-Or may be create a abstract base class for all the Decorator classes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Only  good if there are many decorators</t>
-    </r>
   </si>
   <si>
     <t>Coupling</t>
@@ -1833,16 +1683,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Simply speaking, a Proxy object is one through which we control access to the actual object on which the functionality lies. 
-</t>
-  </si>
-  <si>
     <t>The access to an object should be controlled.
 Additional functionality should be provided when accessing an object.</t>
-  </si>
-  <si>
-    <t>…....
-Member Variables should be prviate only. These member should be accessed via member functions.</t>
   </si>
   <si>
     <r>
@@ -2013,33 +1855,6 @@
 	1.Reflection
 	2.Dependency Injection</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Slight Modification to the origin pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-If the observer is created by passing the observable(concrete, so that we can access the methods/getters), we can avoid the notify method's arguments. Observer can fetch the details from the observable object passed during creation.</t>
-    </r>
-  </si>
-  <si>
-    <t>Make sure to deRegsister.Memory loss</t>
   </si>
   <si>
     <t>MVC</t>
@@ -2236,16 +2051,6 @@
 One way of achieving abstraction is by using interfaces.</t>
   </si>
   <si>
-    <t xml:space="preserve">Adapters are used when we encounter a problem but Bridge is implemented to avoid futuristic problems.A bridge is by design,put in place on purpose. An adaptor is a patch.
-Separetes the Platform independent from platform dependent.It's the solution whenever there are two orthogonal dimensions in the domain.
-allows loose coupling between algorithm and platform
---&gt;what is the difference between decorator and bridge.Why can't we have multiple decorators 
---&gt;Is Bridge pattern is a composite of the Template and Strategy patterns.
---&gt;View/Resource is a factory.
-      Is Handler/View/Resorse  ==== a bridge pattern?
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2330,59 +2135,6 @@
 	Facade Pattern</t>
   </si>
   <si>
-    <t>Used when there are several types algorithms that can be used to perform particular a task. EX:Sorting.
-https://dzone.com/articles/design-patterns-the-strategy-and-factory-patterns
-A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">More than one factory is available. Abstracted by an interface
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The Factory Method Pattern defines an interface for creating an object, but lets subclasses decide which class to instantiate. Factory Method lets a class defer instantiation to subclasses.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The definition says, the subclass of the factory decides which class to instantiate. so the logic should be in the subclass(The Concrete Class).
-A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2446,35 +2198,6 @@
       </rPr>
       <t>.
 By intent,Type of Design Pattern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Factory of Factories 
-The abstract factory pattern provides a way to encapsulate a group of individual factories
-Provide an interface for creating families of related or dependent objects
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Examples of AF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:https://stackoverflow.com/questions/2280170/why-do-we-need-abstract-factory-design-pattern</t>
     </r>
   </si>
   <si>
@@ -2496,12 +2219,6 @@
     <t>When trying to solve a puzzle, check which design pattern can be used</t>
   </si>
   <si>
-    <t xml:space="preserve">Safe to use in cache.
-Thread Safe,state of object will remain same as nobody can change it. 
-******
-Immutable classes promote object proliferation but mutable classes create many defensive copies too. </t>
-  </si>
-  <si>
     <t>JavaBean  and similarities with the Builder Design pattern</t>
   </si>
   <si>
@@ -2520,42 +2237,6 @@
 We directly call the static inner class constructor and the chain .Finally we call build() of the static inner class which returns the actual object.
 Perform argument validy check as early as possible, may be when creating the actual object(build()) from the builder object and throw IllegalArgumentException if any state issues. which is also needed in regular constructors.
 Buiding the object with builder pattern is better than using setters of the class. If setters are used we cannot make sure that the all the required variables are set. Since build method is mandatory we are sure that checks are done.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eager Initialization vs Lazy Initialization</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-The double check is done because :The lock is grabbed only if the Singleton instance does not exist, and then the existence of the instance is checked again(because,what if another thread has created the instance while this thread is waiting for the lock) in case another thread passed the first check an instant before the current thread. By this, we intend to avoid the expense of grabbing the lock of the Singleton class every time the method is called(Avoiding method Sync).Anyway this is also not good approach.
-In lazy initialization, Singleton is created only when Object is created. But in early initialization, if anything of that class is accessed the singleton object is created i.e if any other static memeber or static variable.
-In lazy initialization you give a public API to get the instance. In multi-threaded environment it is challenging to avoid unnecessary object creation. So we put synchronization blocks which poses unnecessary locking to be done to check for object already created. So it becomes a performance issue in this case.In reality most use cases this sort of code it will always be executed, so is it worth to handle this overhead of thread issues? 
-So if we are sure that creating object is not going to take any significant memory and its almost always going to be used in your application then its good to create in static initialization. Also please do not forget to make your instance final in this case as it make sures that the object creation is reflected properly and in totality to main memory which is important in multi-threaded environment.
-public class BillPughSingleton {
-    private BillPughSingleton(){}
-    private static class SingletonHelper{
-        private static final BillPughSingleton INSTANCE = new BillPughSingleton(); 
-    }
-    public static BillPughSingleton getInstance(){
-        return SingletonHelper.INSTANCE;
-    }
-}</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2739,7 +2420,400 @@
     <t>Interview</t>
   </si>
   <si>
-    <t>Command Pattern intends to encapsulate in an object all the data required for performing a given action (command), including what method to call, the method's arguments, and the object to which the method belongs.
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Members</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Invoker,command,receiver
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UseCases:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In some cases, the invoker also stores and queues commands, besides executing them. This is useful for implementing some additional features, undo/redo functionality.
+Are the commands supposed to do some preProcessing/PostProcessing before/after invoking the Receiver? If not, why is the invoker calling the command.Cant it directly call receiver. Yes, pre and post work may be someting like dataBase open and close
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undo/Redo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+Use 2 stacks, undo and redo stack. If you undo an action, it pops from the undo stack and pushes onto the redo stack. Adding a new action is pushing a new one onto the undo stack and clearing the redo stack
+https://stackoverflow.com/questions/1154935/command-pattern-returning-status
+...................understan: Command pattern using generic parameters</t>
+    </r>
+  </si>
+  <si>
+    <t>Helps a lot in Unit testing. We can inject mocked object.
+https://martinfowler.com/articles/injection.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The UML of strategy pattern is same as interfaces &amp; Concrete Class. 
+The UML of Template is similar to Abstract class
+Java has the concept of Abstract class but other languages might does not have.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1. Tax computing website, they ask if we have any investment,HRA...And then calculate
+2. WebPage template</t>
+    </r>
+  </si>
+  <si>
+    <t>Create a Iterator  to iterate custom objects</t>
+  </si>
+  <si>
+    <t>Build Amazon filters  ,builder pattern</t>
+  </si>
+  <si>
+    <t>Branch Prediction</t>
+  </si>
+  <si>
+    <t>forEachRemaining()</t>
+  </si>
+  <si>
+    <t>Processing a sorted array id faster than unSorted.
+https://stackoverflow.com/questions/11227809/why-is-processing-a-sorted-array-faster-than-processing-an-unsorted-array/11227902#11227902</t>
+  </si>
+  <si>
+    <t>Stream API</t>
+  </si>
+  <si>
+    <t>people.stream().filter(person -&gt; person.getBirthYear() == 1980).forEach(person -&gt; System.out.println(person.getName() + " was born in 1980"));
+people.stream().filter(person -&gt; person.getBirthYear() == 1980).filter(person -&gt; "New York".equals(person.getAddress().getCity())).collect(Collectors.toSet());</t>
+  </si>
+  <si>
+    <t>An interface which tells that the collection is iterable. And to Iterate that collection we can get the Iterator using the methods Iterator().
+The forEach() provides each way to iterate.
+It provides a commom inteface .</t>
+  </si>
+  <si>
+    <t>Map interface does not implement Iterable</t>
+  </si>
+  <si>
+    <t>wqeqw</t>
+  </si>
+  <si>
+    <t>Code an example of State Pattern:
+Game. Make the character to walk,talk,run,fight. Pass command and change the state. Change state A-&gt; B, A-&gt;A</t>
+  </si>
+  <si>
+    <t>Cool Concepts</t>
+  </si>
+  <si>
+    <t>Thread in General</t>
+  </si>
+  <si>
+    <t>stack/heap/Ram/CPU Cache/CPU registers</t>
+  </si>
+  <si>
+    <t>Stream class and APIs</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Boot Strap</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>Interface with method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JVM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memory areas allocated by JVM:Classloader, Class area, Heap, Stack, Program Counter Register and Native Method Stack</t>
+  </si>
+  <si>
+    <t>Why Type Casting is bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In logarithm graph time curve decelerates as n increases.
+https://stackoverflow.com/questions/2307283/what-does-olog-n-mean-exactlyIn
+Logarithm is essentially the inverse of exponentiation.
+Now, if you can prove, that at every iteration of your algorithm you cut off a fraction of this space,
+ that is no less than some limit, this means that your algorithm is running in O(logN) time.
+O(log n) running times are very common in any sort of divide-and-conquer application, because you are (ideally) cutting the work in half every time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use factory pattern to return one of many different types of Iterators based on some condition.
+Iterators can be implemented in 2 ways:
+1.Works on the original copy of the collection. This could case runtime exception(CurrentModification) when the someone modifies the collection while Iterating.
+2. Works on a copy of collection to avoid the above problem.But may have stale data.
+3. Or work on original collection and listen to the modification of the collection and update accordingly 
+javapapers.com/design-patterns/iterator-design-pattern/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STB example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+	Program banner and complete Event list. At a given point in time the program banner needs to know only one event data. It needs to know if the next and previous event exists . So iterator is the best .
+Code this banner Iterator to understand better.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Observer Pattern defines a one-to-many dependency between objects so that when one object changes state, all of its dependents are notified and updated automatically.</t>
+  </si>
+  <si>
+    <t>Make sure to deRegsister.Memory loss.
+Slight Modification to the origin pattern:
+If the observer is created by passing the observable(concrete, so that we can access the methods/getters), we can avoid the notify method's arguments. Observer can fetch the details from the observable object passed during creation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Decorator Pattern attaches additional responsibilities to an object dynamically. Decorators provide a flexible alternative to subclassing for extending functionality.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+There are 3 entites in Decorator pattern.
+1. The basic Interface.
+2. One or many concrete Class that provide the basic functionalities.
+3. Decorator Class/Classes that takes/wraps the concrete class(as a construtor argument) and provides the addition functionalities. 
+   The Decorator class should implement the basic interface too(Why---It wil be easy to Use the basic Interface reference and call the operations)
+Decorators should not be inter dependable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DrawBacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.All methods in the decorated interface must be implemented in the decorator class.Can this drawback be solved by combining the command pattern. i.e the Decorators should implement command pattern. May be possible in specific case.
+Or may be create a abstract base class for all the Decorator classes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Only  good if there are many decorators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Factory Method Pattern defines an interface for creating an object, but lets subclasses decide which class to instantiate. Factory Method lets a class defer instantiation to subclasses.
+More than one factory is available. Abstracted by an interface
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Factory Method Pattern defines an interface for creating an object, but lets subclasses decide which class to instantiate. Factory Method lets a class defer instantiation to subclasses.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The definition says, the subclass of the factory decides which class to instantiate. so the logic should be in the subclass(The Concrete Class).
+A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Command Pattern encapsulates a request as an object, thereby letting you parameterize other objects with different requests, queue or log requests, and support undoable operations.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Command Pattern intends to encapsulate in an object all the data required for performing a given action (command), including what method to call, the method's arguments, and the object to which the method belongs.
 The pattern encapsulates everything required to take an action and allows the execution of the action to occur completely independently of any of that context. If that is not a requirement for you then the pattern is probably not helpful for your problem space
 They can have parameterised constructor but is it possible to know the parameters at the time of command creation ?
 Returning the result : 
@@ -2747,40 +2821,19 @@
 1. Either by observer pattern 
 2. the invoker object passing a Result object as a argument to the method call so that command or Receiver object loading the result.
 Even though it is possible to pass arguments and return value from command, it is not recommanded because they are supposed to work independently.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Members</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:Invoker,command,receiver
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UseCases:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Adapter Pattern converts the interface of a class into another interface the clients expect. Adapter lets classes work together that couldn’t otherwise because of incompatible interfaces.</t>
     </r>
     <r>
       <rPr>
@@ -2791,73 +2844,34 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-In some cases, the invoker also stores and queues commands, besides executing them. This is useful for implementing some additional features, undo/redo functionality.
-Are the commands supposed to do some preProcessing/PostProcessing before/after invoking the Receiver? If not, why is the invoker calling the command.Cant it directly call receiver. Yes, pre and post work may be someting like dataBase open and close
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>undo/Redo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :
-Use 2 stacks, undo and redo stack. If you undo an action, it pops from the undo stack and pushes onto the redo stack. Adding a new action is pushing a new one onto the undo stack and clearing the redo stack
-https://stackoverflow.com/questions/1154935/command-pattern-returning-status
-...................understan: Command pattern using generic parameters</t>
-    </r>
-  </si>
-  <si>
-    <t>Helps a lot in Unit testing. We can inject mocked object.
-https://martinfowler.com/articles/injection.html</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The UML of strategy pattern is same as interfaces &amp; Concrete Class. 
-The UML of Template is similar to Abstract class
-Java has the concept of Abstract class but other languages might does not have.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-1. Tax computing website, they ask if we have any investment,HRA...And then calculate
-2. WebPage template</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Members: Abstract class and it concrete class !!
+The adapter is the solution for classes that do similar jobs but don't have a unified interface. Adapter provides the uniform interface and can be implemented using either multiple inheritance or delegation through embedding a member of the adaptee.
+There are two types of Adapter
+1. Objects Adapters(Composition): Adapter Implements the interface. Adapter holds the object of the other class(Adaptee)
+2. Class Adapters (Inheritance): Adapter Implements the interface. Adapter inherits the other class(Adaptee).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Template Method Pattern defines the skeleton of an algorithm in a method, deferring some steps to subclasses. Template Method lets subclasses redefine certain steps of an algorithm without changing the algorithm’s structure.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Members: Abstract class and it concrete class !!
 The Template Method Pattern defines the skeleton of an algorithm in a method, deferring some steps to subclasses. Template Method lets subclasses redefine certain steps of an algorithm without changing the algorithm’s structure.
 The template method is declared </t>
     </r>
@@ -2884,114 +2898,449 @@
     </r>
   </si>
   <si>
-    <t>Map is not Iterable and it is not a collection.</t>
-  </si>
-  <si>
-    <t>Create a Iterator  to iterate custom objects</t>
-  </si>
-  <si>
-    <t>Build Amazon filters  ,builder pattern</t>
-  </si>
-  <si>
-    <t>Branch Prediction</t>
-  </si>
-  <si>
-    <t>forEachRemaining()</t>
-  </si>
-  <si>
-    <t>Processing a sorted array id faster than unSorted.
-https://stackoverflow.com/questions/11227809/why-is-processing-a-sorted-array-faster-than-processing-an-unsorted-array/11227902#11227902</t>
-  </si>
-  <si>
-    <t>Stream API</t>
-  </si>
-  <si>
-    <t>people.stream().filter(person -&gt; person.getBirthYear() == 1980).forEach(person -&gt; System.out.println(person.getName() + " was born in 1980"));
-people.stream().filter(person -&gt; person.getBirthYear() == 1980).filter(person -&gt; "New York".equals(person.getAddress().getCity())).collect(Collectors.toSet());</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Iterating on Maps:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://www.sergiy.ca/how-to-iterate-over-a-map-in-java</t>
-    </r>
-  </si>
-  <si>
-    <t>An interface which tells that the collection is iterable. And to Iterate that collection we can get the Iterator using the methods Iterator().
-The forEach() provides each way to iterate.
-It provides a commom inteface .</t>
-  </si>
-  <si>
-    <t>Map interface does not implement Iterable</t>
-  </si>
-  <si>
-    <t>It has 3 methods.hasNext(), next(), remove().
-By default remove() throws UnsupportedOperationException.
-We can have multiple Iterator for the same Aggretate Object to have diffrerent kind of traversing.</t>
-  </si>
-  <si>
-    <t>Iterator Pattern provides a way to access the elements(seguentially ?) of an aggregate object without exposing the underlying structure.
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Iterator Pattern provides a way to access the elements of an aggregate object sequentially without exposing its underlying representation.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Iterator Pattern provides a way to access the elements(seguentially ?) of an aggregate object without exposing the underlying structure.
 with Iterator pattern, we should be able to Iterator in any aggregation of Objects. Ex: List Employee objects
 What is the need of Iterable intertace,Why cant we directly get the iterator? 
 Imagine Iterable inteface is not there. so to get the iterator of (say) Employee::getEmployeeIterator(), Student::getStudentlterator(), getTeacherlterator(). So Iterable provides a unified API. 
-Use factory pattern to return one of many different types of Iterators based on some condition.</t>
-  </si>
-  <si>
-    <t>Use factory pattern to return one of many different types of Iterators based on some condition.
-Iterators can be implemented in 2 ways:
-1.Works on the original copy of the collection. This could case runtime exception(CurrentModification) when the someone modifies the collection while Iterating.
-2. Works on a copy of collection to avoid the above problem.But may have stale data.
-3. Or work on original collection and listen to the modification of the collection and update accordingly 
-javapapers.com/design-patterns/iterator-design-pattern/</t>
-  </si>
-  <si>
-    <t>wqeqw</t>
-  </si>
-  <si>
-    <t>Code an example of State Pattern:
-Game. Make the character to walk,talk,run,fight. Pass command and change the state. Change state A-&gt; B, A-&gt;A</t>
-  </si>
-  <si>
-    <r>
-      <t>The State Pattern allows an object to alter its behavior when its internal state changes.
-Instead of seetting the next state by the current state object. Its better for each state to use a factory or some other means to set the next state.
+Use factory pattern to return one of many different types of Iterators based on some condition.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+1. Hides internal collection type.
+2. The Iterator remembers the current position
+3.enhanced For loop
+When creating the Iterator, 
+ 1. The Iterable passes the itself(this): Company passes class 
+ 2. or just the collection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The State Pattern allows an object to alter its behavior when its internal state changes. The object will appear to change its class.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The State Pattern allows an object to alter its behavior when its internal state changes.
+When the concrete state object about to set the next state , it is better NOT to set the state(constant or new StateObject() directly . Instead use the help of factory or some kind of dependence injection to avoid class coupling
 Ex: to set the nextstate : getProcessingState() 
 Stratergy and state have similar UML.
 State Machine is different from state design pattern</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Proxy Pattern provides a surrogate or placeholder for another object to control access to it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Simply speaking, a Proxy object is one through which we control access to the actual object on which the functionality lies. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Strategy Pattern defines a family of algorithms, encapsulates each one, and makes them interchangeable. Strategy lets the algorithm vary independently from clients that use it.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Used when there are several types algorithms that can be used to perform particular a task. EX:Sorting.
+https://dzone.com/articles/design-patterns-the-strategy-and-factory-patterns
+A factory pattern is used to create objects of a specific type. A strategy pattern is use to perform an operation (or set of operations) in a particular manner.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Decouple an abstraction from its implementation so that the two can vary independently.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adapters are used when we encounter a problem but Bridge is implemented to avoid futuristic problems.A bridge is by design,put in place on purpose. An adaptor is a patch.
+Separetes the Platform independent from platform dependent.It's the solution whenever there are two orthogonal dimensions in the domain.
+allows loose coupling between algorithm and platform
+--&gt;what is the difference between decorator and bridge.Why can't we have multiple decorators 
+--&gt;Is Bridge pattern is a composite of the Template and Strategy patterns.
+--&gt;View/Resource is a factory.
+      Is Handler/View/Resorse  ==== a bridge pattern?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Abstract Factory Pattern provides an interface for creating families of related or dependent objects without specifying their concrete classes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Factory of Factories 
+The abstract factory pattern provides a way to encapsulate a group of individual factories
+Provide an interface for creating families of related or dependent objects
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Examples of AF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:https://stackoverflow.com/questions/2280170/why-do-we-need-abstract-factory-design-pattern</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/technotes/tools/findingclasses.html#bootclass</t>
+  </si>
+  <si>
+    <t>Hashtable  ht = new Hashtable ();
+		 ht.put(null, null);</t>
+  </si>
+  <si>
+    <t>Concurent
+HashMap </t>
+  </si>
+  <si>
+    <t>Linked
+HasHashMap</t>
+  </si>
+  <si>
+    <t>It has 3 methods.hasNext(), next(), remove().
+By default remove() throws UnsupportedOperationException. As it is not a good idea for a iterator to perform any operation other than reading.
+We can have multiple Iterator for the same Aggretate Object to have diffrerent kind of traversing.</t>
+  </si>
+  <si>
+    <t>*the capacityIncrement(2nd argument) is less than or equal to zero, the capacity of the vector is doubled each time it needs to grow.</t>
+  </si>
+  <si>
+    <t>*Internally uses Array.
+*Best when read operation are more because of index based.
+*Not synchronized but can get a sync list with the help of collection util. This sync list is slow as other threads have to wait while one is writing.</t>
+  </si>
+  <si>
+    <t>*Thread Safe, *Internally uses Array.
+Most of the methods are synchronized,causing delay and not really attomic level sync</t>
+  </si>
+  <si>
+    <t>Collections.synchronizedList(list) .</t>
+  </si>
+  <si>
+    <t>Why to Sync a synchronized lis?
+https://docs.oracle.com/javase/7/docs/api/java/util/Collections.html#synchronizedList(java.util.List)</t>
+  </si>
+  <si>
+    <t>Unfortunately linked lists don't perform very well. Each element in the list is a separate object, and these objects can be spread out all over the computer's memory. CPUs are much faster at accessing data sequentially, so you will get a lot higher performance out of a list implemented on top of an array. An array stores data sequentially. The CPU caches can load bigger chunks of the array into the cache at a time, and have the CPU access the data directly in the CPU cache once loaded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multitasking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Ability to execute more than one task at the same time by a single processor. It is often done by some algorithms by OS.Concurrency.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multithreading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It is a way of executing multiple threads simultaneously in a process. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiprocessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It is same as multitasking, however in multiprocessing more than one CPUs are involved.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parallel Processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: processing of program instructions by dividing them among multiple processors with the objective of running a program in less time.</t>
+    </r>
+  </si>
+  <si>
+    <t>A program in execution is often referred as process.
+A process consists of multiple threads. 
+A process has its own address space. A thread uses the process’s address space and share it with the other threads of that process.
+A thread can communicate with other thread (of the same process) directly by using methods like wait(), notify(), notifyAll().
+A process can communicate with other process by using inter-process communication.</t>
   </si>
   <si>
     <t>Class and instance variable should be final.
 Constructors should perform deep copy.
 No setters, Getters should return a depy copy of instance variable.
-Primitives,String,Integer etc are immutable</t>
-  </si>
-  <si>
-    <t>Cool Concepts</t>
-  </si>
-  <si>
-    <t>Thread in General</t>
+Primitives,String,Integer etc are immutable
+Refer the class concepts.immutable.thread.problems.java</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Safe to use in cache.
+Thread Safe,state of object will remain same as nobody can change it. 
+The Reference is not Thread Safe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When to use immutable classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Notifier events,to avoid method from changing the state,Cache,HashMap. 
+Immutable classes promote object proliferation but mutable classes create many defensive copies too. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Iterating on Maps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.sergiy.ca/how-to-iterate-over-a-map-in-java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Map is not Iterable and it is not a collection.
+Not synchronized but can get a sync list with the help of collection util. This sync list is slow as other threads have to wait while one is writing.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">But Sync list is prefered(May be ) over concurrentHashMap if there are less reads and more write.
+ConcurrentHashMap does not allow null keys or values. So they are NOT equal alternatives of a synchronized map.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Class Loader and Class</t>
+  </si>
+  <si>
+    <t>Good Read:
+http://tutorials.jenkov.com/java-util-concurrent/index.html
+http://tutorials.jenkov.com/java-concurrency/index.html
+http://tutorials.jenkov.com/java-multithreaded-servers/index.html</t>
+  </si>
+  <si>
+    <t>Java threads are objects like any other Java objects. Threads are instances of class java.lang.Thread, or instances of subclasses of this class. In addition to being objects, java threads can also execute code. ,like a virtual CPU that can execute your Java code - inside your Java application.
+A race condition is a special condition that may occur inside a critical section.</t>
   </si>
   <si>
     <r>
@@ -3013,100 +3362,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers).
-More time consuming becuase cache memory cant be used.
-If the  variable is always updated then its okay to use volatile. If the variable is conditionally updated, then race condition comes into picture . So the synchronized code should be used.
-Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multitasking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Ability to execute more than one task at the same time is known as multitasking.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multithreading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: We already discussed about it. It is a process of executing multiple threads simultaneously. Multithreading is also known as Thread-based Multitasking.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multiprocessing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: It is same as multitasking, however in multiprocessing more than one CPUs are involved. On the other hand one CPU is involved in multitasking.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parallel Processing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: It refers to the utilization of multiple CPUs in a single computer system.</t>
+      <t xml:space="preserve"> variables are always read/written from/to the main memory(not from CPU cache or CPU registers)IMMEDIATELY.
+More time consuming because cache memory cant be used.
+Volatile variable may be helpful when doing operation which are atomic.32 bit
+Accessing volatile variables also prevent instruction reordering which is a normal performance enhancement technique.</t>
     </r>
   </si>
   <si>
@@ -3133,50 +3392,638 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, and when the thread exits the synchronized block, all updated variables will be flushed back to main memory again, regardless of whether the variable is declared volatile or not</t>
-    </r>
-  </si>
-  <si>
-    <t>stack/heap/Ram/CPU Cache/CPU registers</t>
-  </si>
-  <si>
-    <t>Stream class and APIs</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>Boot Strap</t>
-  </si>
-  <si>
-    <t>JVM</t>
-  </si>
-  <si>
-    <t>Interface with method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JVM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> memory areas allocated by JVM:Classloader, Class area, Heap, Stack, Program Counter Register and Native Method Stack</t>
-  </si>
-  <si>
-    <t>Why Type Casting is bad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In logarithm graph time curve decelerates as n increases.
-https://stackoverflow.com/questions/2307283/what-does-olog-n-mean-exactlyIn
-Logarithm is essentially the inverse of exponentiation.
-Now, if you can prove, that at every iteration of your algorithm you cut off a fraction of this space,
- that is no less than some limit, this means that your algorithm is running in O(logN) time.
-O(log n) running times are very common in any sort of divide-and-conquer application, because you are (ideally) cutting the work in half every time.</t>
+      <t>, and when the thread exits the synchronized block, all updated variables will be flushed back to main memory again, regardless of whether the variable is declared volatile or not
+If we have more than one critical section, check if it is possible to locking using different locks.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Reference is not Thread Safe.
+Locking data so that it can only be accessed by one thread at a time is just one possible technique for creating thread safety</t>
+  </si>
+  <si>
+    <t>The synchronized keyword can be used to mark four different types of blocks:
+ Instance methods
+ Static methods: synchronized on the Class object of the class
+ Code blocks inside instance methods
+ Code blocks inside static methods:synchronized(MyClass.class)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Synchronized Block drawBacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+ Does not allow any other thread , not even for safe reading. Alternative:Read/Write locks
+ No ordering of threads waiting in the queue.
+ Slight delay
+ These block synchronization holds good only in one instance of JVM.
+Concurrency utility classes are advanced than synchronized key word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When a volatile instance variable is read/written from/into main memory , other instancce variables of that class is also read/written.
+And Java makes sure that read/write on other instance variable happens after the read/write of the volatile variable.This is called "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Happens-Before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" Guarantee. 
+There are still situations where declare a variable as volatile is not enough. A race condition could happen between the time a thread decides to write and the actual write time. So Synchronization is needed!!!.</t>
+    </r>
+  </si>
+  <si>
+    <t>ThreadLocal a hack to avoid sync issues.?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thread synchronization can be achieved by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+**synchronized block of Java code
+**locks
+**atomic variables like AtomicInteger</t>
+    </r>
+  </si>
+  <si>
+    <t>Java is pass-by-value. For primitives, you pass a copy of the actual value. For references to objects, you pass a copy of the reference (the remote control).
+https://javaranch.com/campfire/StoryPassBy.jsp</t>
+  </si>
+  <si>
+    <t>It is a way of executing multiple threads simultaneously in a process</t>
+  </si>
+  <si>
+    <t>It is same as multitasking, however in multiprocessing more than one CPUs are involved.</t>
+  </si>
+  <si>
+    <t>processing of a single program instructions by dividing them among multiple processors with the objective of running a program in less time.</t>
+  </si>
+  <si>
+    <t>Parallel Processing</t>
+  </si>
+  <si>
+    <t>Ability to execute more than one task at the same time by a single processor. It is often done by some algorithms by OS.Concurrency.</t>
+  </si>
+  <si>
+    <t>Strings are immutable :
+So that they can be used in hashtable.
+So that we can use the string pool safely, because no one can change the object of string once it gets created.</t>
+  </si>
+  <si>
+    <t>Java passes everything by value. With primitives, you get a copy of the contents. With references you get a copy of the contents/Handle/pointer.</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Weak reference,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The JVM exits the program when all the user threads are completed.
+It does not wait for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deamon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thread for completion. JVM simply abandons all remaining daemon threads. 
+A thread should be set to deamon before starting the thread.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THREAD SAFETY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+A class is thread-safe if it behaves correctly when accessed from multiple threads, regardless of the scheduling or interleaving of the execution of those threads by the runtime environment, and with no additional synchronization or other coordination on the part of the calling code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">…....
+Member Variables should be prviate only. These member should be accessed via member functions.
+we can make a field as read-only or write-only depending upon the requirements.
+We not exactly preventing access to the fields, we are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controlling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> how others can access certain fields
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Private instance and public Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+1. Do basic Validation.
+2. Take actions when the field is modified (trigger event).
+3. Provide thread safety by synchronizing the method.
+4. Debugging: accessors/properties you can just add a trace inside the function you want or a breakpoint </t>
+    </r>
+  </si>
+  <si>
+    <t>Java memory model specifies how the JVM works with the computer's memory (RAM).
+NEW, RUNNABLE, BLOCKED, WAITING, TIMED_WAITING, TERMINATED</t>
+  </si>
+  <si>
+    <t>To handle UncaughtExceptionHandler in threads
+thread.setDefaultUncaughtExceptionHandler(new Thread.UncaughtExceptionHandler()   
+        {  
+            public void uncaughtException(Thread thread, Throwable e)   
+            {  
+                System.out.println("Exception caught: " + e);  
+            }  
+        });</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Causes of STARVATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+high priority , indefinitely waiting to enter synchronized block, indefinitely waiting for the notify()
+Isnt thread waiting for lock synchronized block FIFO?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ways to avoid DeadLock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+Lock order:If you make sure that all locks are always taken in the same order by any thread
+Lock Timeout</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+With a simple Lock,While isLocked is true, the thread calling lock() is parked waiting in the wait() call. In case the thread should return unexpectedly from the wait() call without having received a notify() call (AKA a Spurious Wakeup) the thread re-checks the isLocked condition to see if it is safe to proceed or not, rather than just assume that being awakened means it is safe to proceed.
+Google about Lock Class</t>
+  </si>
+  <si>
+    <t>Read Access : If no threads are writing, and no threads have requested write access.
+Write Access : If no threads are reading or writing.</t>
+  </si>
+  <si>
+    <t>writeAccesses, writeRequests, writingThread, Map&lt;Thread, Integer&gt; readingThreads = new HashMap&lt;Thread, Integer&gt;();
+http://tutorials.jenkov.com/java-concurrency/read-write-locks.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLOCKING QUEUE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Threads will wait() until the enqueue or dequeue operation is performable. That is until queue has lessThanLimit or atLeastOne.
+The waiting thread will get notifyAll() to perform there operation.
+notifyAll() will be called on only one conditon in each enqueue and dequeue </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thread Pools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+There is a performance overhead associated with starting a new thread and allocating some memory for its stack. So the number of threads running in your application at a time can be handled by thread pool.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NON-BLOCKING ALGORITHMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+An algorithm is said to be non-blocking if the suspension of one thread cannot lead to the suspension of other threads involved in the algorithm.
+Blocking algorithms block the thread until the requested action can be performed. Non-blocking algorithms notify the thread requesting the action that the action cannot be performed.
+If the algorithm guarding a concurrent data structure is non-blocking, it is said to be a non-blocking algorithm. The data structure is thus said to be a non-blocking, concurrent data structure.</t>
+    </r>
+  </si>
+  <si>
+    <t>ExecutorService executorService1 = Executors.newSingleThreadExecutor();
+ExecutorService executorService2 = Executors.newFixedThreadPool(10);
+ExecutorService executorService3 = Executors.newScheduledThreadPool(10);
+execute(Runnable) :
+submit(Runnable) :future.get();
+submit(Callable) :future.get(); Object call() throws Exception
+invokeAny(...) :If one of the tasks complete (or throws an exception), the rest of the Callable's are cancelled.
+invokeAll(...) : Returns a collection of Future objects. Future.get()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FUTURE OBJECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+Future object functions as a handle to the result of the asynchronous task. Once the asynchronous task completes, the result can be accessed via the Future object returned when the task was STARTED.
+public interface Future&lt;V&gt; {
+    boolean cancel(boolean mayInterruptIfRunning)
+    V       get();  //get() method will block until the result is ready.
+    V       get(long timeout, TimeUnit unit);
+    boolean isCancelled();
+    boolean isDone();
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>public class Lock{
+  boolean isLocked = false;  Thread  lockedBy = null;  int  lockedCount = 0;
+  public synchronized void lock()  throws InterruptedException{
+    Thread callingThread = Thread.currentThread();
+    while(isLocked &amp;&amp; lockedBy != callingThread){
+      wait();
+    }
+    isLocked = true;    lockedCount++;    lockedBy = callingThread;
+  }
+  public synchronized void unlock(){
+    if(Thread.curentThread() == this.lockedBy){
+      lockedCount--;
+      if(lockedCount == 0){
+        isLocked = false;
+        notify();
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">synchronized keyword places </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>some</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> restrictions on reordering of instructions before, inside and after synchronized blocks. 
+Do not synchronize on String objects, or any primitive type wrapper objects. These might be cached or reused internally by the Java compiler, Java VM or Java libraries.
+May it is not a good idea to sync on immutable ojects too. Beacuse we might loose the original object's reference after it is used to sync.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Singleton Pattern ensures a class has only one instance, and provides a global point of access to it.
+Eager Initialization vs Lazy Initialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+The double check is done because :The lock is grabbed only if the Singleton instance does not exist, and then the existence of the instance is checked again(because,what if another thread has created the instance while this thread is waiting for the lock) in case another thread passed the first check an instant before the current thread. By this, we intend to avoid the expense of grabbing the lock of the Singleton class every time the method is called(Avoiding method Sync).Anyway this is also not good approach.
+In lazy initialization, Singleton is created only when Object is created. But in early initialization, if anything of that class is accessed the singleton object is created i.e if any other static memeber or static variable.
+In lazy initialization you give a public API to get the instance. In multi-threaded environment it is challenging to avoid unnecessary object creation. So we put synchronization blocks which poses unnecessary locking to be done to check for object already created. So it becomes a performance issue in this case.In reality most use cases this sort of code it will always be executed, so is it worth to handle this overhead of thread issues? 
+So if we are sure that creating object is not going to take any significant memory and its almost always going to be used in your application then its good to create in static initialization. Also please do not forget to make your instance final in this case as it make sures that the object creation is reflected properly and in totality to main memory which is important in multi-threaded environment.
+public class BillPughSingleton {
+    private BillPughSingleton(){}
+    private static class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SingletonHelper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+        private static final BillPughSingleton INSTANCE = new BillPughSingleton(); 
+    }
+    public static BillPughSingleton getInstance(){
+        return SingletonHelper.INSTANCE;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Strems</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liskov Substitution Principle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inheritance</t>
+    </r>
+  </si>
+  <si>
+    <t>When we want to share code among several closely related classes.
+Can have constructors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFAULT METHODS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When we extend an interface that contains a default method, we can perform following,
+*Not override the default method and will inherit the default method.
+*Override the default method similar to other methods we override in subclass.
+*Redeclare default method as abstract, which force subclass to override it.
+Static method in interface is visible to interface methods only hence these static methods cant be overridden(like static methods of class)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FUNCTIONAL INTERFACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+An interface having only single abstract method is called as functional interface. Functional interface can have multiple default or static methods.
+They can have more abstract methods but it will break the functional interface rule.
+The original motivation to introduce default methods to Java 8 was the desire to extend the Collections Framework interfaces with lambda-oriented methods without breaking any existing implementations</t>
+    </r>
+  </si>
+  <si>
+    <t>http://java-latte.blogspot.com/p/concurrency.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3249,6 +4096,15 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3351,7 +4207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3376,9 +4232,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3460,6 +4313,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3744,140 +4599,148 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.265625" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>170</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="C5" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="G9" s="26" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="D12" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+        <v>130</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D8" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="25"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="25"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="25"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="Topics!A1" display="Topics" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" location="Question!A1" display="Question" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A4" location="Puzzles!A1" display="Puzzle" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C8" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I6" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C5" location="'Data Structures'!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I7" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I2" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B6" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C4" location="Collection!A1" display="Collection" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" location="Searching!A1" display="Searching" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C2" location="'Data Structures'!A1" display="Data Structures" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H4" location="Sorting!A1" display="Sorting!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H2" location="Complexity!A1" display="Complexity" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B2" location="Definition!A1" display="Definition!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A7" location="Java!A1" display="Java" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D12" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D7" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D10" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D8" location="'Software Architecture'!A1" display="Software Architecture Patterns" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D4" location="'Design Pattern'!A1" display="'Design Pattern'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D6" location="'Design Priniciples'!A1" display="'Design Priniciples'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="A6" location="'Java Versions'!A1" display="'Java Versions'" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G9" location="Thread!A1" display="Thread" xr:uid="{8C4E23F7-21B1-44CE-A97B-28DB9B4286D0}"/>
-    <hyperlink ref="F7" location="GC!A1" display="GC!A1" xr:uid="{F10EDB29-9F3C-4711-96E1-74B65CB847CF}"/>
-    <hyperlink ref="E6" location="Concepts!A1" display="Concepts" xr:uid="{A75BDD3B-F7CB-4E1F-A0DB-600F1267DAE8}"/>
-    <hyperlink ref="E5" location="CoolConcepts!A1" display="Cool Cocepts" xr:uid="{6E8DB0B6-BC9A-4EAE-AEE6-032454075114}"/>
-    <hyperlink ref="D4" location="Git!A1" display="Git" xr:uid="{91DF4B62-E29B-4D4A-B7B7-520401E69F81}"/>
+    <hyperlink ref="G2" location="Thread!A1" display="Thread" xr:uid="{8C4E23F7-21B1-44CE-A97B-28DB9B4286D0}"/>
+    <hyperlink ref="F2" location="GC!A1" display="GC!A1" xr:uid="{F10EDB29-9F3C-4711-96E1-74B65CB847CF}"/>
+    <hyperlink ref="E4" location="Concepts!A1" display="Concepts" xr:uid="{A75BDD3B-F7CB-4E1F-A0DB-600F1267DAE8}"/>
+    <hyperlink ref="E2" location="CoolConcepts!A1" display="Cool Cocepts" xr:uid="{6E8DB0B6-BC9A-4EAE-AEE6-032454075114}"/>
+    <hyperlink ref="D2" location="Git!A1" display="Git" xr:uid="{91DF4B62-E29B-4D4A-B7B7-520401E69F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3886,52 +4749,60 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="29"/>
+    <col min="2" max="2" width="20.73046875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.265625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="58.796875" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>174</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C3" s="29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B4" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3948,38 +4819,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.73046875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3997,62 +4868,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>76</v>
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>77</v>
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4068,273 +4939,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="91.85546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.86328125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="37.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="34"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>94</v>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="14"/>
+      <c r="C3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="9"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="9"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
         <v>84</v>
       </c>
-      <c r="C11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
       <c r="C18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="F20" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F22" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F23" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="29" spans="2:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="G29" s="30" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="G30" s="30" t="s">
-        <v>310</v>
+        <v>135</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F19" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F20" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F21" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F22" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F23" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F24" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F25" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F26" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F27" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="29" spans="2:7" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="G29" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="G30" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4348,199 +5217,218 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="144.7109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="18.265625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="144.73046875" style="29" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B13" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="B14" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="30" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>293</v>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4556,89 +5444,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="146.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="146.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="145.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="146.7109375" style="1"/>
+    <col min="1" max="1" width="9.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="145.265625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="146.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4655,45 +5543,45 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.265625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" style="2" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.1328125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4707,314 +5595,307 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="66.5703125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9.86328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.265625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="66.59765625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="80.59765625" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="C2" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="15"/>
+      <c r="C2" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="32"/>
+      <c r="B3" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="313.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B19" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="B20" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B22" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B27" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="171" x14ac:dyDescent="0.45">
+      <c r="B28" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B29" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="B31" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="300" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="C31" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="330" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="330" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>286</v>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="28" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5030,79 +5911,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.3984375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>221</v>
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>342</v>
+      <c r="C6" s="36" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5120,114 +5999,114 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.3984375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>221</v>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B2" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
         <v>1.2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>1.3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>1.4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -5247,224 +6126,332 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D15" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>352</v>
+        <v>323</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue!A1" xr:uid="{A8C4B61F-7E3A-4CF2-BDE1-896B5D268A20}"/>
+    <hyperlink ref="E9" r:id="rId1" location="bootclass" xr:uid="{B88FB0E2-8F53-49A8-BB08-1C320DBC39AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="78.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="42"/>
+    <col min="2" max="2" width="78.59765625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="77.59765625" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="41"/>
+      <c r="B2" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B3" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="29" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>185</v>
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B4" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="B6" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="B7" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="29" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B9" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B11" s="29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B12" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="285" x14ac:dyDescent="0.45">
+      <c r="B13" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B14" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B15" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B16" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="B18" s="29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="171" x14ac:dyDescent="0.45">
+      <c r="B19" s="29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="25" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Catalogue!A1" display="Catalogue" xr:uid="{1D871D9B-B38F-4FE9-9226-E6F0F82103DD}"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{61178F12-5E82-4A9D-A026-D540B3326538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5476,25 +6463,25 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.59765625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -5512,36 +6499,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="77.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="77.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="77.42578125" style="30"/>
+    <col min="1" max="1" width="11.3984375" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="77.3984375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>302</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="29" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5555,67 +6542,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="30"/>
-    <col min="2" max="2" width="90.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="65" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="2" max="2" width="90.73046875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="65" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
-        <v>376</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B10" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B11" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="29" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5629,46 +6621,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>346</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5683,212 +6677,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.1328125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="38"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5902,112 +6897,137 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="74.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>221</v>
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="25"/>
+      <c r="B2" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>148</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -6023,40 +7043,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A04F02-2454-4675-B01F-32A13AF6C1ED}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="74.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="74.59765625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>221</v>
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
